--- a/fifty_one/measurements/updated_filtered_data_with_lengths-kalkar.xlsx
+++ b/fifty_one/measurements/updated_filtered_data_with_lengths-kalkar.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f874d</t>
+          <t>67c86e77b9bded6d108a4044</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8751</t>
+          <t>67c86e77b9bded6d108a4048</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f874f</t>
+          <t>67c86e77b9bded6d108a4046</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8753</t>
+          <t>67c86e77b9bded6d108a404a</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a6f</t>
+          <t>67c86e80b9bded6d108a4366</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a71</t>
+          <t>67c86e80b9bded6d108a4368</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a73</t>
+          <t>67c86e80b9bded6d108a436a</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bed</t>
+          <t>67c86e85b9bded6d108a44e4</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8beb</t>
+          <t>67c86e85b9bded6d108a44e2</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8916</t>
+          <t>67c86e7cb9bded6d108a420d</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8914</t>
+          <t>67c86e7cb9bded6d108a420b</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f891c</t>
+          <t>67c86e7cb9bded6d108a4213</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8918</t>
+          <t>67c86e7cb9bded6d108a420f</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f883a</t>
+          <t>67c86e7ab9bded6d108a4131</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8838</t>
+          <t>67c86e7ab9bded6d108a412f</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ad1</t>
+          <t>67c86e81b9bded6d108a43c8</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ad3</t>
+          <t>67c86e81b9bded6d108a43ca</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87d7</t>
+          <t>67c86e78b9bded6d108a40ce</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87d5</t>
+          <t>67c86e78b9bded6d108a40cc</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87db</t>
+          <t>67c86e78b9bded6d108a40d2</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f8707</t>
+          <t>67c86e75b9bded6d108a3ffe</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f8709</t>
+          <t>67c86e75b9bded6d108a4000</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f870b</t>
+          <t>67c86e75b9bded6d108a4002</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8943</t>
+          <t>67c86e7db9bded6d108a423a</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8941</t>
+          <t>67c86e7db9bded6d108a4238</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8945</t>
+          <t>67c86e7db9bded6d108a423c</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e1</t>
+          <t>67c86e7cb9bded6d108a41d8</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e5</t>
+          <t>67c86e7cb9bded6d108a41dc</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e3</t>
+          <t>67c86e7cb9bded6d108a41da</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88db</t>
+          <t>67c86e7cb9bded6d108a41d2</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88dd</t>
+          <t>67c86e7cb9bded6d108a41d4</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8995</t>
+          <t>67c86e7eb9bded6d108a428c</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8997</t>
+          <t>67c86e7eb9bded6d108a428e</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89a3</t>
+          <t>67c86e7eb9bded6d108a429a</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8999</t>
+          <t>67c86e7eb9bded6d108a4290</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f878d</t>
+          <t>67c86e77b9bded6d108a4084</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f878f</t>
+          <t>67c86e77b9bded6d108a4086</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8793</t>
+          <t>67c86e77b9bded6d108a408a</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f896a</t>
+          <t>67c86e7db9bded6d108a4261</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8966</t>
+          <t>67c86e7db9bded6d108a425d</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8964</t>
+          <t>67c86e7db9bded6d108a425b</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8962</t>
+          <t>67c86e7db9bded6d108a4259</t>
         </is>
       </c>
       <c r="X50" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a96</t>
+          <t>67c86e81b9bded6d108a438d</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a92</t>
+          <t>67c86e81b9bded6d108a4389</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a9c</t>
+          <t>67c86e81b9bded6d108a4393</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a94</t>
+          <t>67c86e81b9bded6d108a438b</t>
         </is>
       </c>
       <c r="X54" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a90</t>
+          <t>67c86e81b9bded6d108a4387</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89f1</t>
+          <t>67c86e7fb9bded6d108a42e8</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e7</t>
+          <t>67c86e7fb9bded6d108a42de</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e5</t>
+          <t>67c86e7fb9bded6d108a42dc</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e9</t>
+          <t>67c86e7fb9bded6d108a42e0</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89eb</t>
+          <t>67c86e7fb9bded6d108a42e2</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ef</t>
+          <t>67c86e7fb9bded6d108a42e6</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8778</t>
+          <t>67c86e77b9bded6d108a406f</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8776</t>
+          <t>67c86e77b9bded6d108a406d</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c00</t>
+          <t>67c86e86b9bded6d108a44f7</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c02</t>
+          <t>67c86e86b9bded6d108a44f9</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c04</t>
+          <t>67c86e86b9bded6d108a44fb</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a3b</t>
+          <t>67c86e80b9bded6d108a4332</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a39</t>
+          <t>67c86e80b9bded6d108a4330</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a37</t>
+          <t>67c86e80b9bded6d108a432e</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a3d</t>
+          <t>67c86e80b9bded6d108a4334</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b3b</t>
+          <t>67c86e83b9bded6d108a4432</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b3f</t>
+          <t>67c86e83b9bded6d108a4436</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b37</t>
+          <t>67c86e83b9bded6d108a442e</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b35</t>
+          <t>67c86e83b9bded6d108a442c</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b39</t>
+          <t>67c86e83b9bded6d108a4430</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f884f</t>
+          <t>67c86e7ab9bded6d108a4146</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f884d</t>
+          <t>67c86e7ab9bded6d108a4144</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8853</t>
+          <t>67c86e7ab9bded6d108a414a</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8851</t>
+          <t>67c86e7ab9bded6d108a4148</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ce</t>
+          <t>67c86e7eb9bded6d108a42c5</t>
         </is>
       </c>
       <c r="X80" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ce</t>
+          <t>67c86e7eb9bded6d108a42c5</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888b</t>
+          <t>67c86e7bb9bded6d108a4182</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888b</t>
+          <t>67c86e7bb9bded6d108a4182</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888f</t>
+          <t>67c86e7bb9bded6d108a4186</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87f8</t>
+          <t>67c86e79b9bded6d108a40ef</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87fc</t>
+          <t>67c86e79b9bded6d108a40f3</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87fe</t>
+          <t>67c86e79b9bded6d108a40f5</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f8878</t>
+          <t>67c86e7ab9bded6d108a416f</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f8876</t>
+          <t>67c86e7ab9bded6d108a416d</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b70</t>
+          <t>67c86e84b9bded6d108a4467</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b72</t>
+          <t>67c86e84b9bded6d108a4469</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b74</t>
+          <t>67c86e84b9bded6d108a446b</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b74</t>
+          <t>67c86e84b9bded6d108a446b</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b6e</t>
+          <t>67c86e84b9bded6d108a4465</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b6e</t>
+          <t>67c86e84b9bded6d108a4465</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88b2</t>
+          <t>67c86e7bb9bded6d108a41a9</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88ac</t>
+          <t>67c86e7bb9bded6d108a41a3</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88ae</t>
+          <t>67c86e7bb9bded6d108a41a5</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88b0</t>
+          <t>67c86e7bb9bded6d108a41a7</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c72</t>
+          <t>67c86e87b9bded6d108a4569</t>
         </is>
       </c>
       <c r="X100" t="n">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c76</t>
+          <t>67c86e87b9bded6d108a456d</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c74</t>
+          <t>67c86e87b9bded6d108a456b</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -17064,7 +17064,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c78</t>
+          <t>67c86e87b9bded6d108a456f</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -17228,7 +17228,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8821</t>
+          <t>67c86e79b9bded6d108a4118</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -17394,7 +17394,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8823</t>
+          <t>67c86e79b9bded6d108a411a</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8ca1</t>
+          <t>67c86e88b9bded6d108a4598</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8c9d</t>
+          <t>67c86e88b9bded6d108a4594</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8c9f</t>
+          <t>67c86e88b9bded6d108a4596</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8ca7</t>
+          <t>67c86e88b9bded6d108a459e</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ae8</t>
+          <t>67c86e82b9bded6d108a43df</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8aea</t>
+          <t>67c86e82b9bded6d108a43e1</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -18554,7 +18554,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b0d</t>
+          <t>67c86e82b9bded6d108a4404</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b09</t>
+          <t>67c86e82b9bded6d108a4400</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b07</t>
+          <t>67c86e82b9bded6d108a43fe</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c1f</t>
+          <t>67c86e86b9bded6d108a4516</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c1f</t>
+          <t>67c86e86b9bded6d108a4516</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b2a</t>
+          <t>67c86e83b9bded6d108a4421</t>
         </is>
       </c>
       <c r="X117" t="n">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a26</t>
+          <t>67c86e7fb9bded6d108a431d</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b6</t>
+          <t>67c86e78b9bded6d108a40ad</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b4</t>
+          <t>67c86e78b9bded6d108a40ab</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b8</t>
+          <t>67c86e78b9bded6d108a40af</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8730</t>
+          <t>67c86e76b9bded6d108a4027</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f872e</t>
+          <t>67c86e76b9bded6d108a4025</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -20546,7 +20546,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bbe</t>
+          <t>67c86e85b9bded6d108a44b5</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bbc</t>
+          <t>67c86e85b9bded6d108a44b3</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bc0</t>
+          <t>67c86e85b9bded6d108a44b7</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bc2</t>
+          <t>67c86e85b9bded6d108a44b9</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8ba9</t>
+          <t>67c86e84b9bded6d108a44a0</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8ba7</t>
+          <t>67c86e84b9bded6d108a449e</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a60</t>
+          <t>67c86e80b9bded6d108a4357</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c45</t>
+          <t>67c86e87b9bded6d108a453c</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c45</t>
+          <t>67c86e87b9bded6d108a453c</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c49</t>
+          <t>67c86e87b9bded6d108a4540</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -22206,7 +22206,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c47</t>
+          <t>67c86e87b9bded6d108a453e</t>
         </is>
       </c>
       <c r="X134" t="n">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c36</t>
+          <t>67c86e86b9bded6d108a452d</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8cd0</t>
+          <t>67c86e88b9bded6d108a45c7</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8cce</t>
+          <t>67c86e88b9bded6d108a45c5</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -22860,7 +22860,7 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T138" t="n">
-        <v>27.3426895443812</v>
+        <v>34.91957941812539</v>
       </c>
       <c r="U138" t="n">
         <v>231.624696438009</v>
@@ -22870,17 +22870,17 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d24</t>
+          <t>67c86e8ab9bded6d108a461b</t>
         </is>
       </c>
       <c r="X138" t="n">
-        <v>25.62712342362434</v>
+        <v>32.72861545667687</v>
       </c>
       <c r="Y138" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Z138" t="n">
-        <v>26.14013148788686</v>
+        <v>33.38378238212057</v>
       </c>
       <c r="AA138" t="n">
         <v>294.1815303</v>
@@ -22900,58 +22900,58 @@
         <v>217.2118342229299</v>
       </c>
       <c r="AF138" t="n">
-        <v>34.36852146483894</v>
+        <v>16.18148524425213</v>
       </c>
       <c r="AG138" t="n">
-        <v>41.2208458367753</v>
+        <v>24.93264649033952</v>
       </c>
       <c r="AH138" t="n">
-        <v>36.8681215391217</v>
+        <v>19.37374558008311</v>
       </c>
       <c r="AI138" t="n">
-        <v>13.41987657637566</v>
+        <v>6.318384543323127</v>
       </c>
       <c r="AJ138" t="n">
-        <v>17.97187657637566</v>
+        <v>10.87038454332313</v>
       </c>
       <c r="AK138" t="n">
-        <v>14.96587657637567</v>
+        <v>7.864384543323141</v>
       </c>
       <c r="AL138" t="n">
-        <v>12.90686851211314</v>
+        <v>5.663217617879425</v>
       </c>
       <c r="AM138" t="n">
-        <v>17.45886851211313</v>
+        <v>10.21521761787942</v>
       </c>
       <c r="AN138" t="n">
-        <v>14.45286851211315</v>
+        <v>7.209217617879439</v>
       </c>
       <c r="AO138" t="n">
-        <v>33.05469949576955</v>
+        <v>14.50359212712737</v>
       </c>
       <c r="AP138" t="n">
-        <v>40.04419484876519</v>
+        <v>23.42993558998928</v>
       </c>
       <c r="AQ138" t="n">
-        <v>35.60433698448783</v>
+        <v>17.75975566693626</v>
       </c>
       <c r="AR138" t="n">
-        <v>11.7043104556188</v>
+        <v>4.12742058187461</v>
       </c>
       <c r="AS138" t="n">
-        <v>16.2563104556188</v>
+        <v>8.679420581874609</v>
       </c>
       <c r="AT138" t="n">
-        <v>13.25031045561881</v>
+        <v>5.673420581874623</v>
       </c>
       <c r="AU138" t="n">
-        <v>29.97492881813917</v>
+        <v>10.57039102075604</v>
       </c>
       <c r="AV138" t="n">
-        <v>37.28597090671529</v>
+        <v>19.90738453146772</v>
       </c>
       <c r="AW138" t="n">
-        <v>32.64186055629988</v>
+        <v>13.97635203575646</v>
       </c>
       <c r="AX138" t="n">
         <v>0.9839533610792095</v>
@@ -23026,7 +23026,7 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T139" t="n">
-        <v>24.54192453592182</v>
+        <v>31.3426988049122</v>
       </c>
       <c r="U139" t="n">
         <v>205.2437575177383</v>
@@ -23036,17 +23036,17 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d26</t>
+          <t>67c86e8ab9bded6d108a461d</t>
         </is>
       </c>
       <c r="X139" t="n">
-        <v>23.2746477885393</v>
+        <v>29.7242489829538</v>
       </c>
       <c r="Y139" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Z139" t="n">
-        <v>23.38198452672091</v>
+        <v>29.86132963653514</v>
       </c>
       <c r="AA139" t="n">
         <v>322.0176414</v>
@@ -23066,58 +23066,58 @@
         <v>194.2929686170367</v>
       </c>
       <c r="AF139" t="n">
-        <v>40.82666517036763</v>
+        <v>24.42923503685507</v>
       </c>
       <c r="AG139" t="n">
-        <v>47.61973311306814</v>
+        <v>33.10471939741235</v>
       </c>
       <c r="AH139" t="n">
-        <v>47.58906550950439</v>
+        <v>33.06555354225863</v>
       </c>
       <c r="AI139" t="n">
-        <v>16.0583522114607</v>
+        <v>9.608751017046202</v>
       </c>
       <c r="AJ139" t="n">
-        <v>21.1593522114607</v>
+        <v>14.7097510170462</v>
       </c>
       <c r="AK139" t="n">
-        <v>21.13335221146072</v>
+        <v>14.68375101704622</v>
       </c>
       <c r="AL139" t="n">
-        <v>15.95101547327909</v>
+        <v>9.471670363464856</v>
       </c>
       <c r="AM139" t="n">
-        <v>21.05201547327908</v>
+        <v>14.57267036346486</v>
       </c>
       <c r="AN139" t="n">
-        <v>21.0260154732791</v>
+        <v>14.54667036346487</v>
       </c>
       <c r="AO139" t="n">
-        <v>40.55377284539467</v>
+        <v>24.08072194713054</v>
       </c>
       <c r="AP139" t="n">
-        <v>47.3781686845188</v>
+        <v>32.7962154284216</v>
       </c>
       <c r="AQ139" t="n">
-        <v>47.3473596497908</v>
+        <v>32.75686895033522</v>
       </c>
       <c r="AR139" t="n">
-        <v>14.79107546407818</v>
+        <v>7.990301195087795</v>
       </c>
       <c r="AS139" t="n">
-        <v>19.89207546407818</v>
+        <v>13.09130119508779</v>
       </c>
       <c r="AT139" t="n">
-        <v>19.86607546407819</v>
+        <v>13.06530119508781</v>
       </c>
       <c r="AU139" t="n">
-        <v>37.60474783026511</v>
+        <v>20.31449722901329</v>
       </c>
       <c r="AV139" t="n">
-        <v>44.76769020137322</v>
+        <v>29.46235134151279</v>
       </c>
       <c r="AW139" t="n">
-        <v>44.73535278345835</v>
+        <v>29.42105295236851</v>
       </c>
       <c r="AX139" t="n">
         <v>0.9983813853274819</v>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d70</t>
+          <t>67c86e8bb9bded6d108a4667</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>67c5b2dca3e0a4ddb17f8ded</t>
+          <t>67c86e8fb9bded6d108a46e4</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8e0b</t>
+          <t>67c86e90b9bded6d108a4702</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -24200,7 +24200,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8e0d</t>
+          <t>67c86e90b9bded6d108a4704</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d3d</t>
+          <t>67c86e8ab9bded6d108a4634</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8dab</t>
+          <t>67c86e8db9bded6d108a46a2</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>67c5b2dba3e0a4ddb17f8dce</t>
+          <t>67c86e8eb9bded6d108a46c5</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -25464,7 +25464,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8db8</t>
+          <t>67c86e8db9bded6d108a46af</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d61</t>
+          <t>67c86e8bb9bded6d108a4658</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>67c5b2d6a3e0a4ddb17f8cfa</t>
+          <t>67c86e89b9bded6d108a45f1</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -27462,7 +27462,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d4a</t>
+          <t>67c86e8bb9bded6d108a4641</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -27628,7 +27628,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d4c</t>
+          <t>67c86e8bb9bded6d108a4643</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -27994,7 +27994,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>67c5b2dea3e0a4ddb17f8e22</t>
+          <t>67c86e91b9bded6d108a4719</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>67c5b2dea3e0a4ddb17f8e20</t>
+          <t>67c86e91b9bded6d108a4717</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -28326,7 +28326,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>67c5b2dba3e0a4ddb17f8dc3</t>
+          <t>67c86e8eb9bded6d108a46ba</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>67c5b2dca3e0a4ddb17f8de2</t>
+          <t>67c86e8fb9bded6d108a46d9</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -28758,7 +28758,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>67c5b2d6a3e0a4ddb17f8ce5</t>
+          <t>67c86e89b9bded6d108a45dc</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -28924,7 +28924,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8d9a</t>
+          <t>67c86e8cb9bded6d108a4691</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -29090,7 +29090,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d07</t>
+          <t>67c86e89b9bded6d108a45fe</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -29256,7 +29256,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d07</t>
+          <t>67c86e89b9bded6d108a45fe</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -29422,7 +29422,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d05</t>
+          <t>67c86e89b9bded6d108a45fc</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8df8</t>
+          <t>67c86e90b9bded6d108a46ef</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -29754,7 +29754,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8df8</t>
+          <t>67c86e90b9bded6d108a46ef</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -29920,7 +29920,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d83</t>
+          <t>67c86e8cb9bded6d108a467a</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d85</t>
+          <t>67c86e8cb9bded6d108a467c</t>
         </is>
       </c>
       <c r="X193" t="n">
